--- a/veriset_7.xlsx
+++ b/veriset_7.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="45" windowWidth="20400" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="7 değişkenli" sheetId="4" r:id="rId1"/>
+    <sheet name="veriset_7" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -22,28 +22,28 @@
     <t>Gelir</t>
   </si>
   <si>
-    <t>İş Deneyimi</t>
-  </si>
-  <si>
     <t>İyi</t>
   </si>
   <si>
     <t>Orta</t>
   </si>
   <si>
-    <t>Mutluluk Skoru</t>
+    <t>kötü</t>
   </si>
   <si>
-    <t>Sağlık Durumu</t>
+    <t>İş_Deneyimi</t>
   </si>
   <si>
-    <t>Harcama Miktarı</t>
+    <t>Harcama_Miktarı</t>
   </si>
   <si>
-    <t>Çalışma Saati</t>
+    <t>Çalışma_Saati</t>
   </si>
   <si>
-    <t>kötü</t>
+    <t>Mutluluk_Skoru</t>
+  </si>
+  <si>
+    <t>Sağlık_Durumu</t>
   </si>
 </sst>
 </file>
@@ -400,8 +400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,19 +425,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -460,7 +460,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -483,7 +483,7 @@
         <v>6</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -506,7 +506,7 @@
         <v>9</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -529,7 +529,7 @@
         <v>7</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -552,7 +552,7 @@
         <v>8</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -575,7 +575,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -598,7 +598,7 @@
         <v>6</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -621,7 +621,7 @@
         <v>8</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -644,7 +644,7 @@
         <v>7</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -667,7 +667,7 @@
         <v>8</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -690,7 +690,7 @@
         <v>6</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -713,7 +713,7 @@
         <v>8</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -736,7 +736,7 @@
         <v>8</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -759,7 +759,7 @@
         <v>9</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -782,7 +782,7 @@
         <v>6</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -805,7 +805,7 @@
         <v>9</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -828,7 +828,7 @@
         <v>8</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -851,7 +851,7 @@
         <v>8</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -874,7 +874,7 @@
         <v>8</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -897,7 +897,7 @@
         <v>10</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -920,7 +920,7 @@
         <v>6</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -943,7 +943,7 @@
         <v>9</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -966,7 +966,7 @@
         <v>7</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -989,7 +989,7 @@
         <v>7</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1012,7 +1012,7 @@
         <v>9</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1035,7 +1035,7 @@
         <v>6</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1058,7 +1058,7 @@
         <v>7</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1081,7 +1081,7 @@
         <v>8</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1104,7 +1104,7 @@
         <v>9</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1127,7 +1127,7 @@
         <v>7</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1150,7 +1150,7 @@
         <v>10</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1173,7 +1173,7 @@
         <v>6</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1196,7 +1196,7 @@
         <v>7</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1219,7 +1219,7 @@
         <v>8</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1242,7 +1242,7 @@
         <v>7</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1265,7 +1265,7 @@
         <v>8</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1288,7 +1288,7 @@
         <v>8</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1311,7 +1311,7 @@
         <v>9</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1357,7 +1357,7 @@
         <v>7</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1380,7 +1380,7 @@
         <v>8</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1403,7 +1403,7 @@
         <v>8</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -1426,7 +1426,7 @@
         <v>7</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1449,7 +1449,7 @@
         <v>8</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1472,7 +1472,7 @@
         <v>9</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -1495,7 +1495,7 @@
         <v>7</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -1518,7 +1518,7 @@
         <v>8</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -1541,7 +1541,7 @@
         <v>8</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -1564,7 +1564,7 @@
         <v>9</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -1587,7 +1587,7 @@
         <v>7</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
